--- a/database.xlsx
+++ b/database.xlsx
@@ -1,226 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+  <si>
+    <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
+  </si>
+  <si>
+    <t>GXL1</t>
+  </si>
+  <si>
+    <t>GAJJOCMEQIM75W4OIXB3YJ4HITZWFGRTKEUKQBTCULN6MPDI2BTXNLMN</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>ESTR</t>
+  </si>
+  <si>
+    <t>GC36TSN6XYUNAXEK7EZRZWONRBX3EKMRCPTID74YZ54UN22TCDBYIAJX</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <charset val="134"/>
-      <color rgb="FFCE9178"/>
-      <sz val="10.5"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
       <name val="ClearSans"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <name val="ClearSans"/>
       <charset val="134"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
       <name val="ClearSans"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <sz val="12"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -521,171 +562,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,7 +967,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -940,7 +976,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -953,74 +989,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1220,137 +1193,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col width="86" customWidth="1" min="1" max="1"/>
-    <col width="26.8761904761905" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="69.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="29.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
-        </is>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="3">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
-        </is>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>50</v>
+      <c r="F1" t="s">
+        <v>3</v>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
-        </is>
+      <c r="B2" s="3">
+        <v>0.001</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1208,7 +1208,8 @@
     <col min="1" max="1" width="69.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="29.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="69.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="23.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">

--- a/database.xlsx
+++ b/database.xlsx
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,267 +1,225 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
-  <si>
-    <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
-  </si>
-  <si>
-    <t>GXL1</t>
-  </si>
-  <si>
-    <t>GAJJOCMEQIM75W4OIXB3YJ4HITZWFGRTKEUKQBTCULN6MPDI2BTXNLMN</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>XLM</t>
-  </si>
-  <si>
-    <t>ESTR</t>
-  </si>
-  <si>
-    <t>GC36TSN6XYUNAXEK7EZRZWONRBX3EKMRCPTID74YZ54UN22TCDBYIAJX</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFCE9178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color rgb="FFCE9178"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
+      <color theme="8" tint="0.4"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
       <name val="ClearSans"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="ClearSans"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF0000FF"/>
       <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
-      <name val="ClearSans"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -562,166 +520,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,7 +925,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -976,7 +934,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -989,11 +947,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1193,140 +1214,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="69.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="69.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="23.8571428571429" customWidth="1"/>
+    <col width="69.5714285714286" customWidth="1" style="1" min="1" max="1"/>
+    <col width="16.7142857142857" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.7142857142857" customWidth="1" style="1" min="3" max="3"/>
+    <col width="69.71428571428569" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23.8571428571429" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>XLM</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>GAC5L6MJMS3HTP6K7BN2IPPLDE2SPSFXFREUPWBXYL5M56NKRE6UEAOM</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>ESTR</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GC36TSN6XYUNAXEK7EZRZWONRBX3EKMRCPTID74YZ54UN22TCDBYIAJX</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Transaction failed: Invalid Ed25519 Public Key: GAC5L6MJMS3HTP6K7BN2IPPLDE2SPSFXFREUPWBXYL5M56NKRE6UEAOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>ESTR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GC36TSN6XYUNAXEK7EZRZWONRBX3EKMRCPTID74YZ54UN22TCDBYIAJX</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>GD4UXFBZKCJO6L5I6VTN7GQBL4B7JJ4BARQBG3CYQLHDYBI3DZVIR43Z</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>GXL1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GAJJOCMEQIM75W4OIXB3YJ4HITZWFGRTKEUKQBTCULN6MPDI2BTXNLMN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
+    <row r="5"/>
+    <row r="7" s="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="4" t="n"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
+    <row r="8" s="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="4" t="n"/>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
+    <row r="9" s="1">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="4" t="n"/>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+    <row r="10" s="1">
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="4" t="n"/>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
+    <row r="11" s="1">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="4" t="n"/>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
+    <row r="12" s="1">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="n"/>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+    <row r="13" s="1">
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="4" t="n"/>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
+    <row r="14" s="1">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="4" t="n"/>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+    <row r="15" s="1">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="n"/>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
+    <row r="16" s="1">
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>